--- a/EJEMPLOS EN EXCEL/BONILLA/R4XL-TextMining.xlsx
+++ b/EJEMPLOS EN EXCEL/BONILLA/R4XL-TextMining.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\R4XCL\PROCESO DOCUMENTAL\EJEMPLOS EN EXCEL\BONILLA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\R4XCL\LIBRERIA\EJEMPLOS EN EXCEL\BONILLA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6BF2794-461A-4820-92A5-160C0E6EF22E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF68FC72-8775-4A8A-8E15-4CFBE3D0A4EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14610" yWindow="16200" windowWidth="9765" windowHeight="10882" xr2:uid="{7CF134B0-CB8F-4CBA-BFD8-28F8A23781E5}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" xr2:uid="{7CF134B0-CB8F-4CBA-BFD8-28F8A23781E5}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -66,12 +66,6 @@
     <t>STOP WORDS</t>
   </si>
   <si>
-    <t>M:\R4XCL\PROCESO DOCUMENTAL\EJEMPLOS EN EXCEL\BONILLA\MLK-i-have-a-dream-speech.txt</t>
-  </si>
-  <si>
-    <t>M:\R4XCL\PROCESO DOCUMENTAL\EJEMPLOS EN EXCEL\BONILLA\sw.txt</t>
-  </si>
-  <si>
     <t>Q MAX de palabras</t>
   </si>
   <si>
@@ -83,12 +77,18 @@
   <si>
     <t>Tipo Output</t>
   </si>
+  <si>
+    <t>M:\R4XCL\LIBRERIA\EJEMPLOS EN EXCEL\BONILLA\INSUMOS\MLK-i-have-a-dream-speech.txt</t>
+  </si>
+  <si>
+    <t>M:\R4XCL\LIBRERIA\EJEMPLOS EN EXCEL\BONILLA\INSUMOS\SW.txt</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -96,16 +96,30 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFC000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -113,12 +127,29 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -140,23 +171,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>79375</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>3175</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>317499</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>74612</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>460375</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>98425</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>185737</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>138113</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="BGD_Hoja1 R9 C1" descr="BERT/R Graphics Device Target: Hoja1 R9 C1">
+        <xdr:cNvPr id="5" name="BGD_Hoja1 R9 C1" descr="BERT/R Graphics Device Target: Hoja1 R9 C1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{619B891B-0B43-500B-59C9-E3EA6E8A3ECA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C599EF67-26E6-A751-41CE-C8AF37D24027}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -164,8 +195,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1270000" y="1270000"/>
-          <a:ext cx="1905000" cy="1905000"/>
+          <a:off x="4570412" y="1160462"/>
+          <a:ext cx="2916238" cy="2778126"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -543,69 +574,185 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30FC6A26-3B2B-425E-9FD1-30D144D88163}">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.53125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A1" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
+      <c r="B3" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B4">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B6" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A9" t="str" cm="1">
-        <f t="array" ref="A9">_xll.R.TM_TextMining($B$1,$B$2,$B$3,$B$4,$B$5,$B$6)</f>
-        <v>Word Cloud</v>
+        <f t="array" ref="A9:C19">_xll.R.TM_TextMining($B$1,$B$2,$B$3,$B$4,$B$5,$B$6)</f>
+        <v/>
+      </c>
+      <c r="B9" t="str">
+        <v>word</v>
+      </c>
+      <c r="C9" t="str">
+        <v>freq</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A10" t="str">
+        <v>will</v>
+      </c>
+      <c r="B10" t="str">
+        <v>will</v>
+      </c>
+      <c r="C10">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A11" t="str">
+        <v>freedom</v>
+      </c>
+      <c r="B11" t="str">
+        <v>freedom</v>
+      </c>
+      <c r="C11">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A12" t="str">
+        <v>from</v>
+      </c>
+      <c r="B12" t="str">
+        <v>from</v>
+      </c>
+      <c r="C12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A13" t="str">
+        <v>ring</v>
+      </c>
+      <c r="B13" t="str">
+        <v>ring</v>
+      </c>
+      <c r="C13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A14" t="str">
+        <v>dream</v>
+      </c>
+      <c r="B14" t="str">
+        <v>dream</v>
+      </c>
+      <c r="C14">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A15" t="str">
+        <v>day</v>
+      </c>
+      <c r="B15" t="str">
+        <v>day</v>
+      </c>
+      <c r="C15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A16" t="str">
+        <v>that</v>
+      </c>
+      <c r="B16" t="str">
+        <v>that</v>
+      </c>
+      <c r="C16">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A17" t="str">
+        <v>with</v>
+      </c>
+      <c r="B17" t="str">
+        <v>with</v>
+      </c>
+      <c r="C17">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A18" t="str">
+        <v>let</v>
+      </c>
+      <c r="B18" t="str">
+        <v>let</v>
+      </c>
+      <c r="C18">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A19" t="str">
+        <v>have</v>
+      </c>
+      <c r="B19" t="str">
+        <v>have</v>
+      </c>
+      <c r="C19">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
